--- a/Tax/2017 T1204 and T619 XML fields and mapping.xlsx
+++ b/Tax/2017 T1204 and T619 XML fields and mapping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="T1204" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="322">
   <si>
     <t>T1204 Government Service Contract Payments</t>
   </si>
@@ -536,96 +536,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Note: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>When completing the T1204 return, include either the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Corporation Information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>or</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Recipient Information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">NOT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>both.</t>
-    </r>
-  </si>
-  <si>
     <t>- 12 alphanumeric
 - first 12 letters of the recipient's first given name
 Note: If only initials are available, provide the recipient's first initial.</t>
@@ -1138,11 +1048,6 @@
 - accumulated total of recipients' payment for Mixed services and goods payments, as reported on the T1204 slip records filed with this T1204 Summary</t>
   </si>
   <si>
-    <t>Must enter one of the two following required tags:
-• recipient Social Insurance Number (SIN)
-• recipient Business Number (BN)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">- </t>
     </r>
@@ -1406,44 +1311,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Required</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 8 alphanumeric 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NOTE: This is a unique number that is created by the transmitter to identify each submission filed.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -2244,127 +2111,421 @@
     </r>
   </si>
   <si>
-    <t>Map to 2017 CPPIB T1204 - formated - clean for IT purpose only.xlsx, T1207 2017 XML tab</t>
-  </si>
-  <si>
-    <t>Column A</t>
-  </si>
-  <si>
-    <t>Column B</t>
-  </si>
-  <si>
-    <t>Column C</t>
-  </si>
-  <si>
-    <t>Column D</t>
-  </si>
-  <si>
-    <t>Column E</t>
-  </si>
-  <si>
-    <t>Column F</t>
-  </si>
-  <si>
-    <t>Column G</t>
-  </si>
-  <si>
-    <t>Column H</t>
-  </si>
-  <si>
-    <t>Column I</t>
-  </si>
-  <si>
-    <t>Column J</t>
-  </si>
-  <si>
-    <t>Column K</t>
-  </si>
-  <si>
-    <t>Column L</t>
-  </si>
-  <si>
-    <t>Column M</t>
-  </si>
-  <si>
-    <t>Column N</t>
-  </si>
-  <si>
-    <t>Column O</t>
-  </si>
-  <si>
-    <t>Column P</t>
-  </si>
-  <si>
-    <t>Column Q</t>
-  </si>
-  <si>
-    <t>Column R</t>
-  </si>
-  <si>
-    <t>Column S</t>
-  </si>
-  <si>
-    <t>Column T</t>
-  </si>
-  <si>
-    <t>Column U</t>
-  </si>
-  <si>
-    <t>Column V</t>
-  </si>
-  <si>
-    <t>Column W</t>
-  </si>
-  <si>
-    <t>Column X</t>
-  </si>
-  <si>
-    <t>Column Y</t>
-  </si>
-  <si>
-    <t>Column Z</t>
-  </si>
-  <si>
-    <t>Column AA</t>
-  </si>
-  <si>
-    <t>Column AB</t>
-  </si>
-  <si>
-    <t>Column AC</t>
-  </si>
-  <si>
-    <t>Column AD</t>
-  </si>
-  <si>
-    <t>Column AE</t>
-  </si>
-  <si>
-    <t>Column AF</t>
-  </si>
-  <si>
-    <t>Column AG</t>
-  </si>
-  <si>
-    <t>Column AH</t>
-  </si>
-  <si>
-    <t>Column AI</t>
-  </si>
-  <si>
-    <t>Column AJ</t>
-  </si>
-  <si>
-    <t>Column AK</t>
-  </si>
-  <si>
-    <t>Column AL</t>
-  </si>
-  <si>
-    <t>Column AM</t>
-  </si>
-  <si>
     <t>https://www.canada.ca/en/revenue-agency/services/e-services/filing-information-returns-electronically-t4-t5-other-types-returns-overview/t619-2018/t1204-2018.html</t>
+  </si>
+  <si>
+    <t>- 1 alphanumeric
+- initial of the recipient's second given name</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">NOTE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Must enter one of the two following required tags:
+• recipient Social Insurance Number (SIN)
+• recipient Business Number (BN)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NOTE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>When completing the T1204 return, include either the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Corporation Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Recipient Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NOT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>both.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- 12 alphanumeric
+- first 12 letters of the recipient's first given name
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">NOTE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If only initials are available, provide the recipient's first initial.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Required,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 15 alphanumeric, 9 digits RP 4 digits, example 000000000RP0000
+- enter the Account Number as used on Form PD7A, Statement of Account for Current Source Deductions 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOTE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> In order to process a return, the complete BN is required.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Required,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1 alpha
+- originals = O
+- amendments = A
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">NOTE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>An amended return cannot contain an original slip.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 8 alphanumeric 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">NOTE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This is a unique number that is created by the transmitter to identify each submission filed.</t>
+    </r>
+  </si>
+  <si>
+    <t>Column A, rows 8-555</t>
+  </si>
+  <si>
+    <t>Column B, rows 8-555</t>
+  </si>
+  <si>
+    <t>Column C, rows 8-555</t>
+  </si>
+  <si>
+    <t>Column D, rows 8-555</t>
+  </si>
+  <si>
+    <t>Column E, rows 8-555</t>
+  </si>
+  <si>
+    <t>Column F, rows 8-555</t>
+  </si>
+  <si>
+    <t>Column G, rows 8-555</t>
+  </si>
+  <si>
+    <t>Column H, rows 8-555</t>
+  </si>
+  <si>
+    <t>Column I, rows 8-555</t>
+  </si>
+  <si>
+    <t>Column J, rows 8-555</t>
+  </si>
+  <si>
+    <t>Column K, rows 8-555</t>
+  </si>
+  <si>
+    <t>Column L, rows 8-555</t>
+  </si>
+  <si>
+    <t>Column M, rows 8-555</t>
+  </si>
+  <si>
+    <t>Column N, rows 8-555</t>
+  </si>
+  <si>
+    <t>Column O, rows 8-555</t>
+  </si>
+  <si>
+    <t>Column P, rows 8-555</t>
+  </si>
+  <si>
+    <t>Column Q, rows 8-555</t>
+  </si>
+  <si>
+    <t>Column R, rows 8-555</t>
+  </si>
+  <si>
+    <t>Column S, rows 8-555</t>
+  </si>
+  <si>
+    <t>Column T, rows 8-8</t>
+  </si>
+  <si>
+    <t>Column U, rows 8-8</t>
+  </si>
+  <si>
+    <t>Column V, rows 8-8</t>
+  </si>
+  <si>
+    <t>Column W, rows 8-8</t>
+  </si>
+  <si>
+    <t>Column X, rows 8-8</t>
+  </si>
+  <si>
+    <t>Column Y, rows 8-8</t>
+  </si>
+  <si>
+    <t>Column Z, rows 8-8</t>
+  </si>
+  <si>
+    <t>Column AA, rows 8-8</t>
+  </si>
+  <si>
+    <t>Column AB, rows 8-8</t>
+  </si>
+  <si>
+    <t>Column AC, rows 8-8</t>
+  </si>
+  <si>
+    <t>Column AD, rows 8-8</t>
+  </si>
+  <si>
+    <t>Column AE, rows 8-8</t>
+  </si>
+  <si>
+    <t>Column AF, rows 8-8</t>
+  </si>
+  <si>
+    <t>Column AG, rows 8-8</t>
+  </si>
+  <si>
+    <t>Column AH, rows 8-8</t>
+  </si>
+  <si>
+    <t>Column AI, rows 8-8</t>
+  </si>
+  <si>
+    <t>Column AJ, rows 8-8</t>
+  </si>
+  <si>
+    <t>Column AK, rows 8-8</t>
+  </si>
+  <si>
+    <t>Column AL, rows 8-8</t>
+  </si>
+  <si>
+    <t>Column AM, rows 8-8</t>
+  </si>
+  <si>
+    <t>Map to 2017 CPPIB T1204 - formated - clean for IT purpose only.xlsx, 2017 T1204 Values tab</t>
   </si>
 </sst>
 </file>
@@ -2873,9 +3034,7 @@
   </sheetPr>
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2897,16 +3056,16 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="D4" s="6" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2957,7 +3116,7 @@
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="12" t="s">
-        <v>159</v>
+        <v>277</v>
       </c>
       <c r="D11" s="12"/>
     </row>
@@ -2972,7 +3131,7 @@
         <v>158</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2983,13 +3142,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>160</v>
+        <v>278</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>10</v>
       </c>
@@ -2997,10 +3156,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3021,7 +3180,7 @@
       <c r="A17" s="14"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13" t="s">
-        <v>197</v>
+        <v>276</v>
       </c>
       <c r="D17" s="15"/>
     </row>
@@ -3033,10 +3192,10 @@
         <v>14</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -3047,10 +3206,10 @@
         <v>16</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3069,10 +3228,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3083,10 +3242,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3111,10 +3270,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3139,10 +3298,10 @@
         <v>27</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3153,10 +3312,10 @@
         <v>29</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3167,10 +3326,10 @@
         <v>31</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -3181,10 +3340,10 @@
         <v>33</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -3195,10 +3354,10 @@
         <v>35</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -3209,10 +3368,10 @@
         <v>37</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3237,10 +3396,10 @@
         <v>40</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3265,10 +3424,10 @@
         <v>43</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3279,10 +3438,10 @@
         <v>45</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3307,10 +3466,10 @@
         <v>48</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -3321,10 +3480,10 @@
         <v>50</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3363,10 +3522,10 @@
         <v>54</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>177</v>
+        <v>279</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3391,10 +3550,10 @@
         <v>56</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3405,10 +3564,10 @@
         <v>58</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3419,10 +3578,10 @@
         <v>60</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3455,10 +3614,10 @@
         <v>64</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3469,10 +3628,10 @@
         <v>66</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3483,10 +3642,10 @@
         <v>68</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -3497,10 +3656,10 @@
         <v>70</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -3511,10 +3670,10 @@
         <v>71</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -3525,10 +3684,10 @@
         <v>72</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3561,10 +3720,10 @@
         <v>76</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3575,10 +3734,10 @@
         <v>78</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3586,13 +3745,13 @@
         <v>79</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3603,10 +3762,10 @@
         <v>81</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3623,7 +3782,7 @@
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>83</v>
       </c>
@@ -3631,10 +3790,10 @@
         <v>84</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3645,10 +3804,10 @@
         <v>86</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -3659,10 +3818,10 @@
         <v>50</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>194</v>
+        <v>280</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3673,10 +3832,10 @@
         <v>89</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -3701,10 +3860,10 @@
         <v>92</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -3715,10 +3874,10 @@
         <v>94</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3791,9 +3950,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3804,7 +3965,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3816,10 +3977,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3938,7 +4099,7 @@
     <row r="27" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="D27" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3957,10 +4118,10 @@
         <v>124</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>212</v>
+        <v>281</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -3971,10 +4132,10 @@
         <v>125</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -3985,10 +4146,10 @@
         <v>127</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -3999,10 +4160,10 @@
         <v>129</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4013,10 +4174,10 @@
         <v>131</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -4027,10 +4188,10 @@
         <v>133</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4055,10 +4216,10 @@
         <v>135</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -4069,10 +4230,10 @@
         <v>136</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4105,10 +4266,10 @@
         <v>139</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -4119,10 +4280,10 @@
         <v>140</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -4133,10 +4294,10 @@
         <v>141</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -4147,10 +4308,10 @@
         <v>142</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -4161,10 +4322,10 @@
         <v>143</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -4175,10 +4336,10 @@
         <v>144</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4211,10 +4372,10 @@
         <v>76</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4225,10 +4386,10 @@
         <v>78</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4239,10 +4400,10 @@
         <v>148</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4253,10 +4414,10 @@
         <v>150</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4267,10 +4428,10 @@
         <v>152</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4281,10 +4442,10 @@
         <v>154</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4309,35 +4470,57 @@
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
+    <row r="60" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="12"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="18"/>
+      <c r="A61" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="20" t="s">
-        <v>157</v>
+      <c r="A62" s="18" t="s">
+        <v>156</v>
       </c>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
+      <c r="A63" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="12"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A60" r:id="rId1" location="xmlspcs" display="https://www.canada.ca/en/revenue-agency/services/e-services/filing-information-returns-electronically-t4-t5-other-types-returns-overview/filing-information-returns-electronically-t4-t5-other-types-returns-what-you-should-know-before.html - xmlspcs"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A62" r:id="rId2" location="xmlspcs" display="https://www.canada.ca/en/revenue-agency/services/e-services/filing-information-returns-electronically-t4-t5-other-types-returns-overview/filing-information-returns-electronically-t4-t5-other-types-returns-what-you-should-know-before.html - xmlspcs"/>
   </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="78" fitToHeight="0" orientation="landscape" r:id="rId3"/>
@@ -4348,9 +4531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4371,7 +4552,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -4379,7 +4560,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -4387,7 +4568,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4395,7 +4576,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -4403,7 +4584,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4411,7 +4592,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -4419,7 +4600,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4427,7 +4608,7 @@
         <v>27</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4435,7 +4616,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4443,7 +4624,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4451,7 +4632,7 @@
         <v>33</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -4459,7 +4640,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4467,7 +4648,7 @@
         <v>37</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4475,7 +4656,7 @@
         <v>40</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4483,7 +4664,7 @@
         <v>43</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4491,7 +4672,7 @@
         <v>45</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -4499,7 +4680,7 @@
         <v>48</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -4507,7 +4688,7 @@
         <v>50</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -4515,7 +4696,7 @@
         <v>54</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -4523,7 +4704,7 @@
         <v>56</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4531,7 +4712,7 @@
         <v>58</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4539,7 +4720,7 @@
         <v>60</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4547,7 +4728,7 @@
         <v>64</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4555,7 +4736,7 @@
         <v>66</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4563,7 +4744,7 @@
         <v>68</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4571,7 +4752,7 @@
         <v>70</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -4579,7 +4760,7 @@
         <v>71</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -4587,7 +4768,7 @@
         <v>72</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -4595,7 +4776,7 @@
         <v>76</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4603,15 +4784,15 @@
         <v>78</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4619,7 +4800,7 @@
         <v>81</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -4627,7 +4808,7 @@
         <v>84</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4635,7 +4816,7 @@
         <v>86</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -4643,7 +4824,7 @@
         <v>50</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4651,7 +4832,7 @@
         <v>89</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -4659,7 +4840,7 @@
         <v>92</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -4667,7 +4848,7 @@
         <v>94</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4679,9 +4860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4692,50 +4871,50 @@
   <sheetData>
     <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4743,103 +4922,103 @@
         <v>135</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -4847,7 +5026,7 @@
         <v>154</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
